--- a/Experimental_scripts/Lists/repswitch_practice1_version1.xlsx
+++ b/Experimental_scripts/Lists/repswitch_practice1_version1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Experimental_scripts\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118C569-10DD-4735-8792-07E0D1C6989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFB751-A4EA-49A0-A082-B5E42CD78663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="600" windowWidth="10596" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="44">
   <si>
     <t>image</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>TECLEA</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_612.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_599.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_570.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_733.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_614.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_110.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_12.png</t>
   </si>
 </sst>
 </file>
@@ -911,7 +932,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -925,7 +946,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -939,7 +960,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -953,7 +974,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -967,7 +988,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -981,7 +1002,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -995,7 +1016,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1009,7 +1030,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1023,7 +1044,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1037,7 +1058,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1051,7 +1072,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1065,7 +1086,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
